--- a/data/compounds.xlsx
+++ b/data/compounds.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sk/GDrive/science/manuscripts/20210130 weber GDGTs/2021_leavitt_et_al/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sk/Dropbox/Science/manuscripts/20220315 nmari paper/2022_leavitt_et_al/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECE1B30-E638-5A49-8056-1C55EF3E2E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A508F89-826F-E242-B3AD-10F8D55DC693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22640" windowHeight="13660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19400" yWindow="7780" windowWidth="22640" windowHeight="13660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>compound</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>bp_long</t>
+  </si>
+  <si>
+    <t>n_rings</t>
   </si>
 </sst>
 </file>
@@ -426,71 +429,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
